--- a/biology/Histoire de la zoologie et de la botanique/Joseph_Leidy/Joseph_Leidy.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joseph_Leidy/Joseph_Leidy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Leidy est un paléontologue, parasitologiste et anatomiste américain, né le 9 septembre 1823 à Philadelphie et mort le 30 avril 1891 (à 67 ans) dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Leidy est professeur d’anatomie à l’université de Pennsylvanie puis professeur d’histoire naturelle au Swarthmore College. Il publie Extinct Fauna of Dakota and Nebraska en 1869 où il décrit de nombreuses espèces nouvelles.
 C’est Leidy qui décrit l’holotype d’Hadrosaurus foulkii, découvert dans un dépôt de marne du New Jersey. C’est le premier squelette presque complet d’un dinosaure jamais découvert. Il reçoit la médaille Lyell en 1884.
@@ -545,9 +559,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Glacier Leidy au nord-ouest du Groenland a été nommé par l'explorateur américain Robert Peary en son honneur[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Glacier Leidy au nord-ouest du Groenland a été nommé par l'explorateur américain Robert Peary en son honneur.
 </t>
         </is>
       </c>
